--- a/Unity/Assets/Config/Excel/EquipmentHoleConfig.xlsx
+++ b/Unity/Assets/Config/Excel/EquipmentHoleConfig.xlsx
@@ -1170,8 +1170,8 @@
   <sheetPr/>
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.25"/>
@@ -1683,7 +1683,7 @@
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D5:F5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="B11:B12"/>
